--- a/TrainSchdule/wwwroot/Templete/休假人员统计表.xlsx
+++ b/TrainSchdule/wwwroot/Templete/休假人员统计表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF24D1B-6DFB-42A0-B508-206E936C1E0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF0DE4-1221-4DA6-A11E-66F1876C6B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="120" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="32760" yWindow="120" windowWidth="19200" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$H$3:$H$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$K$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
   <si>
     <t>备注</t>
   </si>
@@ -458,60 +459,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批准首长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路途
 天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政工组意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休假人员统计表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;[rptAppliesExcelViewModel]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;[rptAppliesExcelViewModel]</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CreateDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋_GB2312"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
+    <t>$[RequestInfo_OnTripLength]</t>
+  </si>
+  <si>
+    <t>$[RequestInfo_StampLeave]</t>
+  </si>
+  <si>
+    <t>$[RequestInfo_StampReturn]</t>
+  </si>
+  <si>
+    <t>&gt;[Roster]</t>
+  </si>
+  <si>
+    <t>$[Base_RealName]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationType]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Company_Name]$[Duties_Name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationLength]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[RequestInfo_VocationPlace]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;[Roster]$[Index]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,20 +527,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="24"/>
-      <name val="方正小标宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="黑体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -558,34 +544,6 @@
       <sz val="14"/>
       <name val="黑体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="仿宋_GB2312"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <name val="方正小标宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -616,6 +574,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -635,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -667,601 +651,610 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="132">
+  <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="132" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="99" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="132" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="132">
-    <cellStyle name="差_理论成绩登记表" xfId="1"/>
+  <cellStyles count="134">
+    <cellStyle name="差_理论成绩登记表" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 12 2" xfId="2"/>
-    <cellStyle name="常规 12 2 2" xfId="3"/>
-    <cellStyle name="常规 14 2" xfId="4"/>
-    <cellStyle name="常规 14 2 2" xfId="5"/>
-    <cellStyle name="常规 14 3" xfId="6"/>
-    <cellStyle name="常规 15" xfId="7"/>
-    <cellStyle name="常规 15 2" xfId="8"/>
-    <cellStyle name="常规 16" xfId="9"/>
-    <cellStyle name="常规 16 2" xfId="10"/>
-    <cellStyle name="常规 17" xfId="11"/>
-    <cellStyle name="常规 17 2" xfId="12"/>
-    <cellStyle name="常规 18 2" xfId="13"/>
-    <cellStyle name="常规 2" xfId="14"/>
-    <cellStyle name="常规 2 10" xfId="15"/>
-    <cellStyle name="常规 2 2" xfId="16"/>
-    <cellStyle name="常规 2 2 2" xfId="17"/>
-    <cellStyle name="常规 2 2 2 2" xfId="18"/>
-    <cellStyle name="常规 2 2 2 3" xfId="19"/>
-    <cellStyle name="常规 2 2 2 4" xfId="20"/>
-    <cellStyle name="常规 2 2 2 5" xfId="21"/>
-    <cellStyle name="常规 2 2 2 6" xfId="22"/>
-    <cellStyle name="常规 2 2 2 7" xfId="23"/>
-    <cellStyle name="常规 2 2 3" xfId="24"/>
-    <cellStyle name="常规 2 2 4" xfId="25"/>
-    <cellStyle name="常规 2 2 5" xfId="26"/>
-    <cellStyle name="常规 2 2 6" xfId="27"/>
-    <cellStyle name="常规 2 2 7" xfId="28"/>
-    <cellStyle name="常规 2 2 8" xfId="29"/>
-    <cellStyle name="常规 2 3" xfId="30"/>
-    <cellStyle name="常规 2 3 2" xfId="31"/>
-    <cellStyle name="常规 2 3 3" xfId="32"/>
-    <cellStyle name="常规 2 3 4" xfId="33"/>
-    <cellStyle name="常规 2 3 5" xfId="34"/>
-    <cellStyle name="常规 2 3 6" xfId="35"/>
-    <cellStyle name="常规 2 3 7" xfId="36"/>
-    <cellStyle name="常规 2 4" xfId="37"/>
-    <cellStyle name="常规 2 4 2" xfId="38"/>
-    <cellStyle name="常规 2 4 3" xfId="39"/>
-    <cellStyle name="常规 2 4 4" xfId="40"/>
-    <cellStyle name="常规 2 4 5" xfId="41"/>
-    <cellStyle name="常规 2 4 6" xfId="42"/>
-    <cellStyle name="常规 2 4 7" xfId="43"/>
-    <cellStyle name="常规 2 5" xfId="44"/>
-    <cellStyle name="常规 2 6" xfId="45"/>
-    <cellStyle name="常规 2 7" xfId="46"/>
-    <cellStyle name="常规 2 8" xfId="47"/>
-    <cellStyle name="常规 2 9" xfId="48"/>
-    <cellStyle name="常规 3 2" xfId="49"/>
-    <cellStyle name="常规 3 2 2" xfId="50"/>
-    <cellStyle name="常规 3 2 2 2" xfId="51"/>
-    <cellStyle name="常规 3 2 2 2 2" xfId="52"/>
-    <cellStyle name="常规 3 2 2 3" xfId="53"/>
-    <cellStyle name="常规 3 2 3" xfId="54"/>
-    <cellStyle name="常规 3 2 3 2" xfId="55"/>
-    <cellStyle name="常规 3 2 4" xfId="56"/>
-    <cellStyle name="常规 3 2 5" xfId="57"/>
-    <cellStyle name="常规 3 2 6" xfId="58"/>
-    <cellStyle name="常规 3 2 7" xfId="59"/>
-    <cellStyle name="常规 3 2 8" xfId="60"/>
-    <cellStyle name="常规 3 2 9" xfId="61"/>
-    <cellStyle name="常规 3 3" xfId="62"/>
-    <cellStyle name="常规 3 3 2" xfId="63"/>
-    <cellStyle name="常规 3 3 2 2" xfId="64"/>
-    <cellStyle name="常规 3 3 3" xfId="65"/>
-    <cellStyle name="常规 3 3 4" xfId="66"/>
-    <cellStyle name="常规 3 3 5" xfId="67"/>
-    <cellStyle name="常规 3 3 6" xfId="68"/>
-    <cellStyle name="常规 3 3 7" xfId="69"/>
-    <cellStyle name="常规 3 3 8" xfId="70"/>
-    <cellStyle name="常规 3 4" xfId="71"/>
-    <cellStyle name="常规 3 4 2" xfId="72"/>
-    <cellStyle name="常规 3 4 3" xfId="73"/>
-    <cellStyle name="常规 3 4 4" xfId="74"/>
-    <cellStyle name="常规 3 4 5" xfId="75"/>
-    <cellStyle name="常规 3 4 6" xfId="76"/>
-    <cellStyle name="常规 3 4 7" xfId="77"/>
-    <cellStyle name="常规 3 5" xfId="78"/>
-    <cellStyle name="常规 3 6" xfId="79"/>
-    <cellStyle name="常规 3 7" xfId="80"/>
-    <cellStyle name="常规 3 8" xfId="81"/>
-    <cellStyle name="常规 3 9" xfId="82"/>
-    <cellStyle name="常规 4 2" xfId="83"/>
-    <cellStyle name="常规 4 2 2" xfId="84"/>
-    <cellStyle name="常规 4 2 2 2" xfId="85"/>
-    <cellStyle name="常规 4 2 3" xfId="86"/>
-    <cellStyle name="常规 5 2" xfId="87"/>
-    <cellStyle name="常规 5 2 2" xfId="88"/>
-    <cellStyle name="常规 5 2 2 2" xfId="89"/>
-    <cellStyle name="常规 5 2 2 2 2" xfId="90"/>
-    <cellStyle name="常规 5 2 2 3" xfId="91"/>
-    <cellStyle name="常规 5 2 3" xfId="92"/>
-    <cellStyle name="常规 5 2 3 2" xfId="93"/>
-    <cellStyle name="常规 5 2 4" xfId="94"/>
-    <cellStyle name="常规 5 3" xfId="95"/>
-    <cellStyle name="常规 5 3 2" xfId="96"/>
-    <cellStyle name="常规 5 3 2 2" xfId="97"/>
-    <cellStyle name="常规 5 3 3" xfId="98"/>
-    <cellStyle name="常规 6" xfId="99"/>
-    <cellStyle name="常规 6 2" xfId="100"/>
-    <cellStyle name="常规 6 2 2" xfId="101"/>
-    <cellStyle name="常规 6 2 2 2" xfId="102"/>
-    <cellStyle name="常规 6 2 2 2 2" xfId="103"/>
-    <cellStyle name="常规 6 2 2 3" xfId="104"/>
-    <cellStyle name="常规 6 2 3" xfId="105"/>
-    <cellStyle name="常规 6 2 3 2" xfId="106"/>
-    <cellStyle name="常规 6 2 4" xfId="107"/>
-    <cellStyle name="常规 6 3" xfId="108"/>
-    <cellStyle name="常规 6 3 2" xfId="109"/>
-    <cellStyle name="常规 6 3 2 2" xfId="110"/>
-    <cellStyle name="常规 6 3 3" xfId="111"/>
-    <cellStyle name="常规 6 4" xfId="112"/>
-    <cellStyle name="常规 6 4 2" xfId="113"/>
-    <cellStyle name="常规 6 5" xfId="114"/>
-    <cellStyle name="常规 7" xfId="115"/>
-    <cellStyle name="常规 7 2" xfId="116"/>
-    <cellStyle name="常规 7 2 2" xfId="117"/>
-    <cellStyle name="常规 7 2 2 2" xfId="118"/>
-    <cellStyle name="常规 7 2 3" xfId="119"/>
-    <cellStyle name="常规 7 3" xfId="120"/>
-    <cellStyle name="常规 7 3 2" xfId="121"/>
-    <cellStyle name="常规 7 4" xfId="122"/>
-    <cellStyle name="常规 8" xfId="123"/>
-    <cellStyle name="常规 8 2" xfId="124"/>
-    <cellStyle name="常规 8 2 2" xfId="125"/>
-    <cellStyle name="常规 8 2 2 2" xfId="126"/>
-    <cellStyle name="常规 8 2 3" xfId="127"/>
-    <cellStyle name="常规 8 3" xfId="128"/>
-    <cellStyle name="常规 8 3 2" xfId="129"/>
-    <cellStyle name="常规 8 4" xfId="130"/>
-    <cellStyle name="好_理论成绩登记表" xfId="131"/>
+    <cellStyle name="常规 12 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 12 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 14 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="常规 14 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="常规 14 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规 15" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="常规 15 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 16" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 16 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 17" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规 17 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 18 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="常规 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="常规 2 10" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="常规 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="常规 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="常规 2 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 2 2 2 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 2 2 2 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 2 2 2 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 2 2 2 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 2 2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 2 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 2 2 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 2 2 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 2 2 8" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 2 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 2 3 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="常规 2 3 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="常规 2 3 6" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 2 3 7" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="常规 2 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 2 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 2 4 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 2 4 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="常规 2 4 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="常规 2 4 6" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="常规 2 4 7" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="常规 2 5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="常规 2 6" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 2 7" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="常规 2 8" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="常规 2 9" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="常规 3" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="常规 3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 3 2 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 3 2 2 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 3 2 2 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 3 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 3 2 3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 3 2 4" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 3 2 5" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 3 2 6" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="常规 3 2 7" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="常规 3 2 8" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="常规 3 2 9" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="常规 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="常规 3 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="常规 3 3 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="常规 3 3 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 3 3 4" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="常规 3 3 5" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="常规 3 3 6" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="常规 3 3 7" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="常规 3 3 8" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="常规 3 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="常规 3 4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="常规 3 4 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="常规 3 4 4" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="常规 3 4 5" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="常规 3 4 6" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="常规 3 4 7" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="常规 3 5" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="常规 3 6" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="常规 3 7" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="常规 3 8" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="常规 3 9" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="常规 4" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="常规 4 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="常规 4 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="常规 4 2 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="常规 4 2 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="常规 5 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="常规 5 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="常规 5 2 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="常规 5 2 2 2 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="常规 5 2 2 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="常规 5 2 3" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="常规 5 2 3 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="常规 5 2 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="常规 5 3" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="常规 5 3 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="常规 5 3 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="常规 5 3 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="常规 6" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="常规 6 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="常规 6 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="常规 6 2 2 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="常规 6 2 2 2 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="常规 6 2 2 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="常规 6 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="常规 6 2 3 2" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="常规 6 2 4" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="常规 6 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="常规 6 3 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="常规 6 3 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="常规 6 3 3" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="常规 6 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="常规 6 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="常规 6 5" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="常规 7" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="常规 7 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="常规 7 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="常规 7 2 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="常规 7 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="常规 7 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="常规 7 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="常规 7 4" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="常规 8" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="常规 8 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="常规 8 2 2" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="常规 8 2 2 2" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="常规 8 2 3" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="常规 8 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="常规 8 3 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="常规 8 4" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="好_理论成绩登记表" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1596,161 +1589,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="16" customWidth="1"/>
     <col min="12" max="12" width="18.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="str">
+        <f ca="1">"创建时间:" &amp; YEAR(NOW()) &amp; "年" &amp; MONTH(NOW()) &amp; "月" &amp; DAY(NOW()) &amp; "日 " &amp; HOUR(NOW()) &amp; "时"</f>
+        <v>创建时间:2019年5月11日 14时</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
-        <v>113</v>
-      </c>
+      <c r="L3" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:K6"/>
-  <mergeCells count="6">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
+  <autoFilter ref="A2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;28休假人员统计表</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1768,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
@@ -1800,7 +1768,7 @@
       <c r="F1" s="1">
         <v>10</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>42359</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1826,7 +1794,7 @@
       <c r="F2" s="1">
         <v>8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>42361</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1852,7 +1820,7 @@
       <c r="F3" s="1">
         <v>19</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>42352</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -1878,7 +1846,7 @@
       <c r="F4" s="1">
         <v>13</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>42359</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1930,7 +1898,7 @@
       <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>42366</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1956,7 +1924,7 @@
       <c r="F7" s="1">
         <v>23</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>42352</v>
       </c>
       <c r="H7" s="4" t="s">
@@ -1982,7 +1950,7 @@
       <c r="F8" s="1">
         <v>25</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>42350</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -2008,7 +1976,7 @@
       <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>42368</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -2034,7 +2002,7 @@
       <c r="F10" s="1">
         <v>25</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>42352</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2086,7 +2054,7 @@
       <c r="F12" s="1">
         <v>16</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>42367</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -2112,7 +2080,7 @@
       <c r="F13" s="1">
         <v>18</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>42366</v>
       </c>
       <c r="H13" s="4" t="s">
@@ -2138,7 +2106,7 @@
       <c r="F14" s="1">
         <v>24</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>42361</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2164,7 +2132,7 @@
       <c r="F15" s="1">
         <v>27</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>42359</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2190,7 +2158,7 @@
       <c r="F16" s="1">
         <v>19</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>42366</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2216,7 +2184,7 @@
       <c r="F17" s="1">
         <v>23</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>42357</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2242,7 +2210,7 @@
       <c r="F18" s="1">
         <v>36</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>42352</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -2268,7 +2236,7 @@
       <c r="F19" s="1">
         <v>23</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>42366</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -2294,7 +2262,7 @@
       <c r="F20" s="1">
         <v>31</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>42359</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -2320,7 +2288,7 @@
       <c r="F21" s="1">
         <v>26</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>42366</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -2346,7 +2314,7 @@
       <c r="F22" s="1">
         <v>31</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>42364</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -2372,7 +2340,7 @@
       <c r="F23" s="1">
         <v>33</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>42366</v>
       </c>
       <c r="H23" s="4" t="s">
@@ -2398,7 +2366,7 @@
       <c r="F24" s="1">
         <v>31</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>42369</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -2424,7 +2392,7 @@
       <c r="F25" s="1">
         <v>49</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>42366</v>
       </c>
       <c r="H25" s="4" t="s">

--- a/TrainSchdule/wwwroot/Templete/休假人员统计表.xlsx
+++ b/TrainSchdule/wwwroot/Templete/休假人员统计表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF0DE4-1221-4DA6-A11E-66F1876C6B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509CA9B0-72BA-48F8-8173-056F71B96B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="120" windowWidth="19200" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1093,31 +1093,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="132" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="133" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="132" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="134">
@@ -1596,40 +1593,40 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="15" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="16" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="15" customWidth="1"/>
     <col min="12" max="12" width="18.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="str">
+      <c r="A1" s="9" t="str">
         <f ca="1">"创建时间:" &amp; YEAR(NOW()) &amp; "年" &amp; MONTH(NOW()) &amp; "月" &amp; DAY(NOW()) &amp; "日 " &amp; HOUR(NOW()) &amp; "时"</f>
-        <v>创建时间:2019年5月11日 14时</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+        <v>创建时间:2019年5月13日 8时</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1639,22 +1636,22 @@
       <c r="B2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -1669,35 +1666,35 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>112</v>
       </c>
       <c r="L3" s="7"/>

--- a/TrainSchdule/wwwroot/Templete/休假人员统计表.xlsx
+++ b/TrainSchdule/wwwroot/Templete/休假人员统计表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20343"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509CA9B0-72BA-48F8-8173-056F71B96B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB468E3F-A14E-4266-9CA0-7859CEB99FCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="120" windowWidth="19200" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,17 +13,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$H$3:$H$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="121">
   <si>
     <t>备注</t>
   </si>
@@ -497,6 +497,14 @@
   </si>
   <si>
     <t>&lt;[Roster]$[Index]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Audit_SelfCompanyName]意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Audit_HeadCompanyName]意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,16 +597,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="仿宋_GB2312"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -619,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -666,6 +680,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1067,7 +1118,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1166,27 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="134">
@@ -1590,19 +1662,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="14" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="14" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="14" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="14" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="14" bestFit="1" customWidth="1"/>
@@ -1613,101 +1685,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="17" t="str">
         <f ca="1">"创建时间:" &amp; YEAR(NOW()) &amp; "年" &amp; MONTH(NOW()) &amp; "月" &amp; DAY(NOW()) &amp; "日 " &amp; HOUR(NOW()) &amp; "时"</f>
-        <v>创建时间:2019年5月13日 8时</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+        <v>创建时间:2019年5月13日 22时</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L4" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
+  <autoFilter ref="A3:K4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;28休假人员统计表</oddHeader>
   </headerFooter>
